--- a/Kibana設定変更_3桁カンマ区切りなし_テストケース_修正後.xlsx
+++ b/Kibana設定変更_3桁カンマ区切りなし_テストケース_修正後.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD9DDCCB-D9E8-4E28-AF4A-B98F2E806FBE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28D8B1B3-CE7A-4CA4-8403-A533103FD62C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="フロントエンド" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -26,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="68">
   <si>
     <t>システム名</t>
     <rPh sb="4" eb="5">
@@ -398,135 +402,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ウィンドウタイトル完全版の数値項目にカンマが付いていないことを確認する</t>
-    <rPh sb="9" eb="11">
-      <t>カンゼン</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>バン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>スウチ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ツ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ファイル操作一覧の数値項目にカンマが付いていないことを確認する</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>デバイス接続状況Dashboard</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>デバイス接続先一覧の数値項目にカンマが付いていないことを確認する</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Kibanaのナビゲーションパネル　＞　Management　＞　Settingsで「format:number:defaultPattern」の設定を変更後に確認する</t>
-    <rPh sb="73" eb="75">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="76" eb="78">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="78" eb="79">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="80" eb="82">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>値にカンマが付いていない</t>
-    <rPh sb="0" eb="1">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ファイル操作一覧をドリルダウン表示して以下の値を確認する
-・procId
-・その他の項目（項目名の左隣に＃マークが付いているもの）の値</t>
-    <rPh sb="4" eb="6">
-      <t>ソウサ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="49" eb="50">
-      <t>ヒダリ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>デバイス接続先一覧をドリルダウン表示して以下の値を確認する
-・termAreaId
-・その他の項目（項目名の左隣に＃マークが付いているもの）の値</t>
-    <rPh sb="4" eb="6">
-      <t>セツゾク</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>サキ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="52" eb="53">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>ヒダリドナリ</t>
-    </rPh>
-    <rPh sb="62" eb="63">
-      <t>ツ</t>
-    </rPh>
-    <rPh sb="71" eb="72">
-      <t>アタイ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -622,31 +498,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>警告一覧の数値項目の値にカンマが付いていないことを確認する</t>
-    <rPh sb="0" eb="2">
-      <t>ケイコク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>スウチ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ツ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>警告一覧の数値項目以外の値のフォーマットに変更がないことを確認する</t>
     <rPh sb="0" eb="2">
       <t>ケイコク</t>
@@ -678,53 +529,6 @@
     <t>天野</t>
     <rPh sb="0" eb="2">
       <t>アマノ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>警告一覧をドリルダウン表示して以下の値を確認する
-・AlertID
-・AreaID
-・FunctionCategoryDivision
-・その他の項目（項目名の左隣に＃マークが付いているもの）の値</t>
-    <rPh sb="0" eb="2">
-      <t>ケイコク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="71" eb="72">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="73" eb="75">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="76" eb="78">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="78" eb="79">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="80" eb="82">
-      <t>ヒダリドナリ</t>
-    </rPh>
-    <rPh sb="88" eb="89">
-      <t>ツ</t>
-    </rPh>
-    <rPh sb="97" eb="98">
-      <t>アタイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -841,6 +645,381 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <r>
+      <t>値にカンマが</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>付いている</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>ウィンドウタイトル完全版の数値項目にカンマが</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>付いている</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ことを確認する</t>
+    </r>
+    <rPh sb="9" eb="11">
+      <t>カンゼン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>ファイル操作一覧の数値項目にカンマが</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>付いている</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ことを確認する</t>
+    </r>
+    <rPh sb="18" eb="19">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>デバイス接続先一覧の数値項目にカンマが</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>付いている</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ことを確認する</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>警告一覧をドリルダウン表示して以下の値を確認する
+・AlertID
+・AreaID
+・FunctionCategoryDivision</t>
+    <rPh sb="0" eb="2">
+      <t>ケイコク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ファイル操作一覧をドリルダウン表示して以下の値を確認する
+・procId
+・その他の項目（項目名の左隣に＃マークが付いているもの）の値</t>
+    <rPh sb="4" eb="6">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>デバイス接続先一覧をドリルダウン表示して以下の値を確認する
+・termAreaId
+・その他の項目（項目名の左隣に＃マークが付いているもの）の値</t>
+    <rPh sb="4" eb="6">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>警告一覧の数値項目の値の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>カンマが付いていない</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>ケイコク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>値にカンマが付いていないこと</t>
+    <rPh sb="0" eb="1">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>警告一覧をドリルダウン表示して下記以外の（フィールド名の左隣に＃マークが付いているもの）値を確認する
+・AlertID
+・AreaID
+・FunctionCategoryDivision</t>
+    <rPh sb="15" eb="17">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>警告一覧の数値項目の値のカンマが付いていること</t>
+    <rPh sb="0" eb="2">
+      <t>ケイコク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>値にカンマが付いている</t>
+    <rPh sb="0" eb="1">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>IT-APP-1-5-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Management　＞　Index Patternsの各フィールドの設定で、Formatの設定内容を変更してから確認する</t>
+    <rPh sb="28" eb="29">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>設定の変更内容</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+【インデックス名】
+cwat_index_alert_it1dev_2*
+【フィールド名】
+AlertID
+AreaID
+FunctionCategoryDivision
+【Format】
+Number
+【Numeral.js format pattern 】
+修正前：0,0.[000]（Default）
+修正後：0.[000]</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="139" eb="141">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="141" eb="142">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="162" eb="164">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="164" eb="165">
+      <t>ゴ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -850,7 +1029,7 @@
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -941,6 +1120,30 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -968,7 +1171,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1130,6 +1333,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1137,7 +1360,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1206,9 +1429,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="176" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1224,9 +1444,6 @@
     <xf numFmtId="176" fontId="4" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="4" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1241,12 +1458,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="176" fontId="8" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1293,13 +1504,133 @@
     </xf>
     <xf numFmtId="9" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="39">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2043,10 +2374,10 @@
     <col min="1" max="1" width="4.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="1.9140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.33203125" customWidth="1"/>
-    <col min="6" max="6" width="22.58203125" customWidth="1"/>
+    <col min="6" max="6" width="31.9140625" customWidth="1"/>
     <col min="7" max="7" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.58203125" style="29" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.25" style="29" customWidth="1"/>
+    <col min="8" max="8" width="25.58203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.25" style="28" customWidth="1"/>
     <col min="10" max="10" width="22.83203125" customWidth="1"/>
     <col min="11" max="11" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6" bestFit="1" customWidth="1"/>
@@ -2057,81 +2388,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="3" customFormat="1" ht="16.5">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="47"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="43"/>
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="H1" s="33" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
-      <c r="M1" s="45" t="s">
+      <c r="M1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="48"/>
-      <c r="O1" s="45" t="s">
+      <c r="N1" s="44"/>
+      <c r="O1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="49" t="s">
+      <c r="P1" s="44"/>
+      <c r="Q1" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="R1" s="49"/>
+      <c r="R1" s="45"/>
     </row>
     <row r="2" spans="1:18" s="3" customFormat="1" ht="16.5">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="52"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="48"/>
       <c r="F2" s="4" t="s">
         <v>25</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="36" t="s">
+      <c r="H2" s="34" t="s">
         <v>8</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
-      <c r="M2" s="53">
-        <v>8</v>
-      </c>
-      <c r="N2" s="53"/>
-      <c r="O2" s="54">
-        <v>6</v>
-      </c>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="55">
+      <c r="M2" s="49">
+        <v>9</v>
+      </c>
+      <c r="N2" s="49"/>
+      <c r="O2" s="50">
+        <v>9</v>
+      </c>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="51">
         <f>O2/M2</f>
-        <v>0.75</v>
-      </c>
-      <c r="R2" s="55"/>
+        <v>1</v>
+      </c>
+      <c r="R2" s="51"/>
     </row>
     <row r="3" spans="1:18" s="7" customFormat="1" ht="31" customHeight="1">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="38" t="s">
-        <v>44</v>
+      <c r="E3" s="63" t="s">
+        <v>66</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
@@ -2149,11 +2480,11 @@
       <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="44"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="40"/>
       <c r="E4" s="9" t="s">
         <v>11</v>
       </c>
@@ -2163,10 +2494,10 @@
       <c r="G4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="27" t="s">
+      <c r="H4" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="27" t="s">
+      <c r="I4" s="26" t="s">
         <v>15</v>
       </c>
       <c r="J4" s="10" t="s">
@@ -2211,28 +2542,30 @@
       <c r="D5" s="15">
         <v>1</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="E5" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="34" t="s">
+      <c r="G5" s="32" t="s">
         <v>32</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="J5" s="41" t="s">
-        <v>60</v>
+        <v>46</v>
+      </c>
+      <c r="J5" s="37" t="s">
+        <v>51</v>
       </c>
       <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
+      <c r="L5" s="19">
+        <v>44092</v>
+      </c>
       <c r="M5" s="20" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="N5" s="19"/>
       <c r="O5" s="20"/>
@@ -2240,9 +2573,9 @@
       <c r="Q5" s="20"/>
       <c r="R5" s="21"/>
     </row>
-    <row r="6" spans="1:18" s="7" customFormat="1" ht="91">
+    <row r="6" spans="1:18" s="7" customFormat="1" ht="65">
       <c r="A6" s="5">
-        <f t="shared" ref="A6:A12" si="0">ROW()-4</f>
+        <f t="shared" ref="A6:A13" si="0">ROW()-4</f>
         <v>2</v>
       </c>
       <c r="B6" s="13">
@@ -2254,26 +2587,28 @@
       <c r="D6" s="15">
         <v>2</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="26"/>
-      <c r="G6" s="31"/>
+      <c r="F6" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" s="30"/>
       <c r="H6" s="17" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="J6" s="18" t="s">
-        <v>45</v>
+        <v>57</v>
+      </c>
+      <c r="J6" s="56" t="s">
+        <v>61</v>
       </c>
       <c r="K6" s="19"/>
       <c r="L6" s="19">
-        <v>44091</v>
+        <v>44092</v>
       </c>
       <c r="M6" s="20" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="N6" s="19"/>
       <c r="O6" s="20"/>
@@ -2295,13 +2630,13 @@
       <c r="D7" s="15">
         <v>3</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="E7" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="26"/>
-      <c r="G7" s="31"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="30"/>
       <c r="H7" s="17" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="I7" s="18" t="s">
         <v>35</v>
@@ -2314,7 +2649,7 @@
         <v>44091</v>
       </c>
       <c r="M7" s="20" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="N7" s="19"/>
       <c r="O7" s="20"/>
@@ -2336,11 +2671,11 @@
       <c r="D8" s="15">
         <v>4</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="E8" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="22"/>
-      <c r="G8" s="33"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="31"/>
       <c r="H8" s="17" t="s">
         <v>37</v>
       </c>
@@ -2355,7 +2690,7 @@
         <v>44091</v>
       </c>
       <c r="M8" s="20" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="N8" s="19"/>
       <c r="O8" s="20"/>
@@ -2378,25 +2713,27 @@
         <v>1</v>
       </c>
       <c r="E9" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="61"/>
+      <c r="G9" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="J9" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19">
+        <v>44092</v>
+      </c>
+      <c r="M9" s="20" t="s">
         <v>49</v>
-      </c>
-      <c r="F9" s="22"/>
-      <c r="G9" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="I9" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="J9" s="41" t="s">
-        <v>60</v>
-      </c>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="20" t="s">
-        <v>57</v>
       </c>
       <c r="N9" s="19"/>
       <c r="O9" s="20"/>
@@ -2419,25 +2756,25 @@
         <v>2</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" s="22"/>
+        <v>43</v>
+      </c>
+      <c r="F10" s="61"/>
       <c r="G10" s="22"/>
       <c r="H10" s="18" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="J10" s="18" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="K10" s="19"/>
       <c r="L10" s="19">
-        <v>44091</v>
+        <v>44092</v>
       </c>
       <c r="M10" s="20" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="N10" s="19"/>
       <c r="O10" s="20"/>
@@ -2460,27 +2797,27 @@
         <v>1</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" s="22"/>
-      <c r="G11" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="61"/>
+      <c r="G11" s="53" t="s">
         <v>34</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="I11" s="18" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="J11" s="18" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="K11" s="19"/>
       <c r="L11" s="19">
-        <v>44091</v>
+        <v>44092</v>
       </c>
       <c r="M11" s="20" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="N11" s="19"/>
       <c r="O11" s="20"/>
@@ -2502,28 +2839,28 @@
       <c r="D12" s="15">
         <v>1</v>
       </c>
-      <c r="E12" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="F12" s="39"/>
-      <c r="G12" s="32" t="s">
-        <v>42</v>
+      <c r="E12" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="61"/>
+      <c r="G12" s="54" t="s">
+        <v>40</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="J12" s="18" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="K12" s="19"/>
       <c r="L12" s="19">
-        <v>44091</v>
+        <v>44092</v>
       </c>
       <c r="M12" s="20" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="N12" s="19"/>
       <c r="O12" s="20"/>
@@ -2531,24 +2868,64 @@
       <c r="Q12" s="20"/>
       <c r="R12" s="21"/>
     </row>
-    <row r="13" spans="1:18" s="25" customFormat="1">
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
+    <row r="13" spans="1:18" s="7" customFormat="1" ht="79" customHeight="1">
+      <c r="A13" s="5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B13" s="13">
+        <v>1</v>
+      </c>
+      <c r="C13" s="14">
+        <v>5</v>
+      </c>
+      <c r="D13" s="15">
+        <v>1</v>
+      </c>
+      <c r="E13" s="60" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="62"/>
+      <c r="G13" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="I13" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="J13" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="K13" s="57"/>
+      <c r="L13" s="57">
+        <v>44092</v>
+      </c>
+      <c r="M13" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="N13" s="57"/>
+      <c r="O13" s="58"/>
+      <c r="P13" s="57"/>
+      <c r="Q13" s="58"/>
+      <c r="R13" s="59"/>
     </row>
     <row r="14" spans="1:18" s="25" customFormat="1">
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
     </row>
     <row r="15" spans="1:18" s="25" customFormat="1">
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
     </row>
     <row r="16" spans="1:18" s="25" customFormat="1">
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="F6:F13"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="M1:N1"/>
@@ -2561,138 +2938,193 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="N6:Q6 N8:Q8 K12:Q12 K10:Q10 M11:O11 M5:O9 P5:R12 H5:M12">
-    <cfRule type="expression" dxfId="26" priority="35">
+    <cfRule type="expression" dxfId="38" priority="46">
       <formula>$R5="✔"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R12">
-    <cfRule type="expression" dxfId="25" priority="31">
+    <cfRule type="expression" dxfId="37" priority="42">
       <formula>$R12="✔"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P12:Q12">
-    <cfRule type="expression" dxfId="24" priority="32">
+    <cfRule type="expression" dxfId="36" priority="43">
       <formula>$R12="✔"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:I10">
-    <cfRule type="expression" dxfId="23" priority="13">
+    <cfRule type="expression" dxfId="35" priority="24">
       <formula>$R10="✔"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7:J7">
-    <cfRule type="expression" dxfId="22" priority="27">
+    <cfRule type="expression" dxfId="34" priority="38">
       <formula>$R7="✔"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12 M6 M8 M10">
-    <cfRule type="expression" dxfId="21" priority="28">
+    <cfRule type="expression" dxfId="33" priority="39">
       <formula>$R6="✔"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7:J7">
-    <cfRule type="expression" dxfId="20" priority="9">
+    <cfRule type="expression" dxfId="32" priority="20">
       <formula>$R7="✔"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:J9">
-    <cfRule type="expression" dxfId="19" priority="26">
+    <cfRule type="expression" dxfId="31" priority="37">
       <formula>$R9="✔"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12:I12">
-    <cfRule type="expression" dxfId="18" priority="25">
+    <cfRule type="expression" dxfId="30" priority="36">
       <formula>$R12="✔"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12">
-    <cfRule type="expression" dxfId="17" priority="24">
+    <cfRule type="expression" dxfId="29" priority="35">
       <formula>$R12="✔"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:J9">
-    <cfRule type="expression" dxfId="16" priority="21">
+    <cfRule type="expression" dxfId="28" priority="32">
       <formula>$R9="✔"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11:J11">
-    <cfRule type="expression" dxfId="15" priority="20">
+    <cfRule type="expression" dxfId="27" priority="31">
       <formula>$R11="✔"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R10">
-    <cfRule type="expression" dxfId="14" priority="16">
+    <cfRule type="expression" dxfId="26" priority="27">
       <formula>$R10="✔"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P10:Q10">
-    <cfRule type="expression" dxfId="13" priority="17">
+    <cfRule type="expression" dxfId="25" priority="28">
       <formula>$R10="✔"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:J5">
-    <cfRule type="expression" dxfId="12" priority="15">
+    <cfRule type="expression" dxfId="24" priority="26">
       <formula>$R5="✔"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7:J7">
-    <cfRule type="expression" dxfId="11" priority="14">
+    <cfRule type="expression" dxfId="23" priority="25">
       <formula>$R7="✔"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J10">
-    <cfRule type="expression" dxfId="10" priority="12">
+  <conditionalFormatting sqref="J10:J12">
+    <cfRule type="expression" dxfId="22" priority="23">
       <formula>$R10="✔"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R12">
+    <cfRule type="expression" dxfId="21" priority="21">
+      <formula>$R12="✔"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P12:Q12">
+    <cfRule type="expression" dxfId="20" priority="22">
+      <formula>$R12="✔"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9:J9">
+    <cfRule type="expression" dxfId="19" priority="19">
+      <formula>$R9="✔"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12:I12">
+    <cfRule type="expression" dxfId="18" priority="18">
+      <formula>$R12="✔"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J12">
+    <cfRule type="expression" dxfId="17" priority="17">
+      <formula>$R12="✔"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J5">
+    <cfRule type="expression" dxfId="16" priority="16">
+      <formula>$R5="✔"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J6">
+    <cfRule type="expression" dxfId="15" priority="15">
+      <formula>$R6="✔"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J9">
+    <cfRule type="expression" dxfId="14" priority="14">
+      <formula>$R9="✔"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J9">
+    <cfRule type="expression" dxfId="13" priority="13">
+      <formula>$R9="✔"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J9">
+    <cfRule type="expression" dxfId="12" priority="12">
+      <formula>$R9="✔"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13:R13">
+    <cfRule type="expression" dxfId="11" priority="11">
+      <formula>$R13="✔"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R13">
+    <cfRule type="expression" dxfId="10" priority="9">
+      <formula>$R13="✔"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P13:Q13">
     <cfRule type="expression" dxfId="9" priority="10">
-      <formula>$R12="✔"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P12:Q12">
-    <cfRule type="expression" dxfId="8" priority="11">
-      <formula>$R12="✔"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H9:J9">
-    <cfRule type="expression" dxfId="7" priority="8">
-      <formula>$R9="✔"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H12:I12">
-    <cfRule type="expression" dxfId="6" priority="7">
-      <formula>$R12="✔"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J12">
-    <cfRule type="expression" dxfId="5" priority="6">
-      <formula>$R12="✔"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J5">
-    <cfRule type="expression" dxfId="4" priority="5">
-      <formula>$R5="✔"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J6">
+      <formula>$R13="✔"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M13">
+    <cfRule type="expression" dxfId="8" priority="8">
+      <formula>$R13="✔"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13:I13">
+    <cfRule type="expression" dxfId="7" priority="7">
+      <formula>$R13="✔"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J13">
+    <cfRule type="expression" dxfId="6" priority="6">
+      <formula>$R13="✔"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J13">
+    <cfRule type="expression" dxfId="5" priority="5">
+      <formula>$R13="✔"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R13">
+    <cfRule type="expression" dxfId="4" priority="3">
+      <formula>$R13="✔"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P13:Q13">
     <cfRule type="expression" dxfId="3" priority="4">
-      <formula>$R6="✔"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J9">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>$R9="✔"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J9">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$R9="✔"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J9">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$R9="✔"</formula>
+      <formula>$R13="✔"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13:I13">
+    <cfRule type="expression" dxfId="2" priority="2">
+      <formula>$R13="✔"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J13">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>$R13="✔"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2708,7 +3140,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
-    <row r="20" s="40" customFormat="1"/>
+    <row r="20" s="36" customFormat="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
